--- a/JOBCON/MALABANAN, JEFFREY R..xlsx
+++ b/JOBCON/MALABANAN, JEFFREY R..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -168,6 +168,21 @@
   <si>
     <t>JOBCON</t>
   </si>
+  <si>
+    <t>MALABANAN,JEFFREY R.</t>
+  </si>
+  <si>
+    <t>AMBULANCE DRIVER</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>01/05,08,09,12,13,16,17,20,21,24,25,28,29/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +194,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +228,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -403,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,15 +570,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,17 +582,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,7 +1057,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1100,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1164,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1224,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1290,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1353,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1451,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1510,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1575,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1618,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1693,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1879,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1945,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +2003,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2069,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2125,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2200,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2243,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2309,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2365,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2463,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2526,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2592,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2942,12 +2970,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="4785" topLeftCell="A20" activePane="bottomLeft"/>
+      <selection activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,38 +2997,42 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="49" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3013,14 +3045,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3046,18 +3078,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3142,7 +3174,9 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="61">
+        <v>44957</v>
+      </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -3158,7 +3192,9 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="61">
+        <v>44985</v>
+      </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -3174,7 +3210,9 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="61">
+        <v>45016</v>
+      </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -3190,7 +3228,9 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="61">
+        <v>45046</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -3206,7 +3246,9 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="61">
+        <v>45077</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -3222,7 +3264,9 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="61">
+        <v>45107</v>
+      </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="43"/>
@@ -3238,7 +3282,9 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="61">
+        <v>45138</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -3254,7 +3300,9 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="61">
+        <v>45169</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -3270,7 +3318,9 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="61">
+        <v>45199</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3286,7 +3336,9 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="61">
+        <v>45230</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3302,7 +3354,9 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="61">
+        <v>45260</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3318,7 +3372,9 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="61">
+        <v>45291</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3334,7 +3390,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3350,8 +3408,12 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="61">
+        <v>45322</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -3363,10 +3425,14 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="62" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="61">
+        <v>45351</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3382,7 +3448,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="61">
+        <v>45382</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3398,7 +3466,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="61">
+        <v>45412</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3414,7 +3484,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="61">
+        <v>45443</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3430,7 +3502,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="61">
+        <v>45473</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3446,7 +3520,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="61">
+        <v>45504</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3462,7 +3538,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="61">
+        <v>45535</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3478,7 +3556,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="61">
+        <v>45565</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3494,7 +3574,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="61">
+        <v>45596</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3510,7 +3592,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="61">
+        <v>45626</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3526,7 +3610,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="61">
+        <v>45657</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3542,7 +3628,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3558,7 +3644,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3750,7 +3836,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3766,7 +3852,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3958,7 +4044,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3974,7 +4060,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4166,7 +4252,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4182,7 +4268,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -5110,34 +5196,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
